--- a/500all/speech_level/speeches_CHRG-114hhrg97766.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97766.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittee on Environment and Oversight will come to order.    Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing entitled the ``Renewable Fuel Standard: A Ten-Year Review of Costs and Benefits.'' I recognize myself for five minutes for an opening statement.    Good morning, and welcome to today's joint hearing of the Environment and Oversight Subcommittees examining the Renewable Fuel Standard. Today, we will hear from witnesses on the cost and environmental impact of this complex and misguided mandate, as well as the future consequences if Congress does not take action.    The RFS is an example of the federal government picking winners and losers by forcing the use of renewables in transportation fuels. The mandate was supported by a bipartisan coalition, the ethanol industry, and environmental organizations; and justified by claims of environmental benefits and enhanced U.S. energy security.    Unfortunately, but not surprisingly, eight years after the current RFS was expanded by Congress as part of the Energy Independence and Security Act of 2007, these promises have yet to materialize. Congress designed the RFS using flawed projections about gasoline consumption, availability of renewable fuel infrastructure, bio-refinery technology, and the market demand for renewable fuels. In almost every category, these projections do not reflect today's energy market.    Today, demand for gasoline is significantly lower than was forecast when the RFS became law. A sluggish economy and improvements in vehicle energy efficiency continue to hold down gasoline consumption. And technology advancements have unlocked our domestic resources of oil and gas to an extent that was not anticipated when the RFS was designed.    Incorporating renewable fuels was supposed to deliver environmental benefits. But time and again, researchers, including one of our witnesses today, have found that corn ethanol produced to meet the RFS makes air quality worse, and has higher lifecycle emissions than gasoline. And while corn-based fuel ethanol production, supported by the requirements of this standard, has grown substantially since EISA became law, the advanced biofuels and cellulosic ethanol industries expected under the RFS still aren't ready for primetime.    The RFS is an egregious perversion of the free market. Instead of a transportation fuel market driven by consumer demand, we are stuck with a complex mandate based on outdated assumptions about gasoline demand, environmental impact, and technological readiness. Each year, the RFS requires still higher volumes of renewable fuel, which now exceed the volumes that can be accommodated given current gasoline demand.    The RFS mandate is unworkable even with EPA's dubious assertion that E15 can safely be used in select vehicles, even though most vehicles were designed to use E10, gasoline containing not more than ten percent ethanol. This is on top of the simple fact that consumers do not want these fuels. Just .5 percent of what HollyFrontier--a merchant refiner with facilities in my district--sells are products greater than E10, one-half of one percent.    And because the ethanol blending volumes required under law are impossible to meet with the current production levels of E10, E15, and other higher level ethanol blends, including E85, refiners are left at the mercy of uncertain annual waivers from the EPA. I'm going to repeat that. Refiners are left at the mercy of uncertain annual waivers from the EPA to keep the mandatory blending volumes at achievable levels. When EPA even bothers to follow the law and announce annual requirements--and that is when EPA bothers to follow the law and announce annual requirements on time.    Refiners have had to file lawsuits to get the EPA to do their job and announce the annual blend levels, which is absurd. Congress cannot continue to sit back and leave the EPA to manage the consequences of an unrealistic and poorly crafted law.    So what is the end result of this confusing mandate? American consumers are stuck with higher prices across the economy. The mandate has already increased prices at the pump, and if the RFS is enforced as enacted, the Congressional Budget Office estimates that E10 fuel prices could increase by 15 percent or more by 2017.    By increasing demand for corn, the RFS also distorts commodity prices, raising the cost of food for American families. We will hear testimony that the RFS costs the chain restaurant industry $3.2 billion a year in higher food prices, which must be passed on to consumers, our constituents.    The federal government's RFS mandate has led to multiple negative consequences, propelled by willful disregard for consumer preferences and flawed economic and environmental assumptions. Demand for fuels with blends of ethanol greater than E10 is very limited, even with the most favorable market conditions. And more corn ethanol hasn't helped the environment. It hasn't reduced costs or encouraged the development of commercial-scale advanced biofuels.    Federal mandates are the wrong approach to fuel innovation, and the RFS is a prime example of the elites in Washington, D.C., believing they know best, imposing a misguided standard, then standing back while it damages our economy.    I want to thank our witnesses today for testifying on the challenges of the RFS--testifying on the challenges the RFS has created in today's energy market, and I look forward to a discussion about the consequences caused by the federal government's intervention in the American energy market.    It's time for Congress to fix the problems caused by this outdated and ill-conceived law and pass legislation to repeal the RFS.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. I now recognize the Ranking Member, the gentlewoman from Oregon, for an opening statement.</t>
   </si>
   <si>
-    <t>Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and thank you to our witnesses for being here today to discuss the history and future of the Renewable Fuel Standard.    In 2005, Congress established the Renewable Fuel Standard as a way to both reduce our dependence on foreign oil and reduce greenhouse gas emissions. The RFS policy also had the added benefit of advancing rural economic development. In 2007, Congress expanded the RFS to drive additional innovation and investment in the biofuels industry. And now, ten years later, the original goals and motivation for the Renewable Fuel Standard still remain valid.    Despite this fact, we will hear today from some who will assert that the RFS is a failed policy and that it should be repealed. I respectfully disagree. Our nation's long-term economic and energy security is tied to our ability to diversify our energy portfolio and to transition to lower carbon energy sources.    Biofuels have an important part to play in this energy future. It would be better if we were further along, but the Renewable Fuel Standard has been, and should continue to be, a critical mechanism for fostering the development of this emerging industry.    In my home State of Oregon, we've recognized the significant opportunities in biofuels, especially with our State's strong agriculture and forestry industries. For example, Red Rock Biofuels is investing about $200 million to build a biorefinery facility in southern Oregon where they will transform waste biomass from forests and sawmills into jet fuel. Now, that's a place that really needs the jobs, down there in southern Oregon. Red Rock plans to sell 6 million gallons of its renewable jet fuel each year to Southwest Airlines and FedEx Express. This type of innovation will greatly reduce the carbon footprint of our airlines and create jobs in an area that needs them.    Additionally, in my Congressional district, Summit Natural Energy converts food processing and agricultural wastes into bioethanol for racecars. And I've spoken with the racecar drivers. They rave about this product.    The potential of biofuels, especially advanced biofuels, in addressing climate change is real and it is something that we should be encouraging, not trying to undermine. Reducing carbon pollution from the transportation sector is critical in our fight against climate change, and the economic costs of not acting are catastrophic.    In fact, a recent report by Citigroup GPS shows that the costs of climate inaction could be up to $44 trillion by 2060. We need to use a variety of mechanisms to curb greenhouse gases, and the RFS is one of these tools. Most recent estimates of the Argonne National Laboratory's Greenhouse Gases, Regulated Emissions, and Energy Use in Transportation model have shown that corn ethanol can produce up to 48 percent less greenhouse gases than gasoline across the entire lifecycle.    Investments in first-generation biofuels are serving as an important bridge to the development of advanced biofuels, including cellulosic biofuels. Just last week, DuPont opened the world's largest cellulosic ethanol plant in Iowa. If done correctly in a sustainable and thoughtful manner, we can produce biofuels that will lower carbon emissions of our transportation sector.    A viable competitive advanced biofuels industry relies on the infrastructure developed for the first-generation conventional biofuels. The RFS was designed to provide market certainty to drive the production of domestically produced biofuels. We have seen what an industry can do when given a strong market signal, a signal that the RFS can provide.    Overreliance on a limited range of technologies and finite resources is unreasonable. Our nation cannot drill our way to energy security and a thriving economy. We must continue to take steps to mitigate climate change. We need to unleash the creativity of our scientists, engineers, and entrepreneurs, and the Renewable Fuel Standard is an important tool in spurring innovation and unlocking our energy potential.    Thank you very much, Mr. Chairman. I look forward to hearing from the witnesses, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Well, thank you, Mr. Chairman, and witnesses for being here with us today.    I'd like to thank you for taking your time to come here and discuss this extremely important matter that we're facing.    Today, we're here to examine the big-picture challenge of the Renewable Fuel Standard and its impact on our country and the American people. Ten years ago, supporters of the RFS promised to put our country on a path to being cleaner, greener, and more energy independent in a time of heavy dependence on foreign oil and high gas prices. Back then, gasoline consumption was on the rise, America relied on foreign oil, and renewable fuels were just starting to become an option for consumers.    Fast-forward to today where the demand for gasoline is decreasing, our country is now considering exporting crude oil, and we know that ethanol and biofuels are not as clean as we once thought.    In the Committee's hearing on the RFS this summer, we heard testimony from Dr. Jason Hill from the University of Minnesota, who debunked the misnomer that corn ethanol is cleaner than regular gasoline. Dr. Hill acknowledged that while ethanol fuels generally burn cleaner than gasoline at the tailpipe, if you look at the lifecycle emissions of ethanol, you can see that the process of growing and fermenting grain, and distilling, distributing, and combusting ethanol releases far more of the five particulate pollutants that contribute to increased particulate matter 2.5 and ozone levels than gasoline. In short, corn-based ethanol is simply not cleaner than gasoline.    Dr. DeCicco, who joins us today, has conducted careful analysis of more than 100 related studies concluding that serious flaws exist in the government-sponsored modeling used to justify the RFS. It comes as no surprise that the Office of Inspector General for the EPA announced this month that they are planning to investigate whether the EPA complied with the reporting requirements associated with the RFS. The IG will also be examining whether the EPA appropriately updated the lifecycle analysis supporting the RFS with findings from studies mandated in the statute on the environmental impacts of biofuels. We look forward to their findings.    It is also clear that the demand today for biofuels is far less than the EPA anticipated it would be. In our last hearing we heard from CountryMark, a farmer-owned integrated oil company that sells E10, E15, and E85 fuel at its stations. This farmer-owned small business refiner cannot sell E85 to the very farmers who grow the corn used for the ethanol it's blended because there is no demand for this fuel.    It is also becoming clear that Americans are ill- equipped to make smart decisions about gasoline choices entering the marketplace. According to a recent study conducted by the Outdoor Power Equipment Institute, Americans choose to purchase gasoline based on price and simply don't pay attention to the warning labels placed at the pump. This results in consumers using fuels with higher blends of ethanol in lawnmowers, chainsaws, generators, and other small engine equipment that are not certified to use those fuels. This can cause damage or permanently destroy those products.    And with that, Mr. Chairman, I would like to enter into the record a letter from Todd Teske, President of Briggs &amp; Stratton, which outlines these points in further detail.</t>
   </si>
   <si>
@@ -91,36 +82,24 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    And thank you, Chairmen Bridenstine and Loudermilk, for holding today's hearing, and thank you to the witnesses for testifying.    The greatest challenge of this generation--climate change--requires innovative solutions if we ever hope to make a meaningful difference. It requires us to look at every aspect of our energy production and consumption. We must find ways to end our dependence on fossil fuels and reduce our greenhouse gas emissions.    The Renewable Fuel Standard has helped us push the technological limits and the capacity of industry to innovate our transportation fuels. In the past ten years, we've seen increasing production of biofuels from both corn ethanol and advanced biofuels. And this increase has come with considerable advancements in how corn ethanol is produced, improving production efficiencies, while decreasing both the costs and the greenhouse gas emissions.    The Renewable Fuel Standard was designed to integrate all biofuels into our fuel supply and lay the groundwork for growth and development of advanced biofuels with a 50 percent reduction in greenhouse gas emissions compared to that of conventional gasoline. And I'm interested in learning more about the advancements in this area and where we can expect biofuels to be in the next ten years.    We realize there have been challenges. The EPA is prepared to finalize the volumetric requirements for 2014, 2015, 2016 next month while missing--or later this month--after missing the statutory deadline two years in a row. And while they're inundated with public comments during the proposal process, that doesn't excuse the lengthy delay.    The Agency has issued waivers for the required cellulosic biofuels and plans to do so again, but I hope that the proposed biometric obligations can be finalized by November 30 deadline, provide market certainty, and signals to investors that the United States intends to be a world leader in the development and production of these advanced fuels.    With a wide-ranging body of research looking at every aspect of production and a range of stakeholders that have advocated for almost every different scenario available, we as lawmakers are left with difficult decisions to make. And I want to thank the witnesses again for providing expert testimony on this pressing topic.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Beyer.    Let me introduce our witnesses. Our first witness today is Dr. Terry Dinan, Senior Adviser at the Congressional Budget Office. Dr. Dinan received her bachelor's degree from John Carroll University and her Ph.D. in economics from Iowa State University.    Our next witness is Mr. Ed Anderson, President and CEO of WEN-GAP, LLC. Mr. Anderson received his bachelor's degree from Guilford College and currently owns 11 Wendy's franchises.    Our third witness today is Dr. John DeCicco, Research Professor at the University of Michigan Energy Institute. Dr. DeCicco received his bachelor's degree in mathematics from Catholic University, his master's degree in mechanical engineering from North Carolina State University, and his Ph.D. in mechanical engineering from Princeton University.    Our fourth witness today is Mr. Brooke Coleman, Executive Director of the Advanced Biofuels Business Council. Mr. Coleman received his bachelor's degree from Wesleyan University and his law degree from Northeastern.    Our final witness today is Mr. Charles Drevna, Distinguished Senior Fellow at the Institute for Energy Research. Mr. Drevna has over 40 years of extensive experience in legislative, regulatory, public policy, and marketplace issues involving energy and the environment. Prior to joining IER, he served as President of the American Fuel and Petrochemical Manufacturers. Mr. Drevna received his bachelor's degree in chemistry from Washington and Jefferson College.    I now recognize Dr. Dinan for five minutes to present her testimony.</t>
   </si>
   <si>
-    <t>Dinan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dinan. Good morning, Chairmen Bridenstine, Chairman Loudermilk, Ranking Member Bonamici, Ranking Member Beyer, and members of the committee. Thank you for the opportunity to testify about the Renewable Fuel Standard. This testimony updates a Congressional Budget Office's report on the RFS, which was published in June 2014.    The RFS establishes minimum volumes of various types of renewable fuels that suppliers must blend into the U.S. transportation fuel supply. Those volumes, as defined by the Energy Independence and Security Act of 2007, or EISA, are intended to grow each year through 2022. To date, the requirements of the RFS have been met largely by blending gasoline with ethanol made from cornstarch. In the future, EISA requires use of increasingly large amounts of advanced biofuels, which include diesel made from biomass, ethanol made from sugarcane, and cellulosic biofuels.    CBO concludes that the rising requirements of EISA would be very hard to meet in the future because of two main obstacles. First, making cellulosic biofuels is complex and costly. Second, the increasing requirement for the total gallons of renewable fuels would push the average concentration of ethanol and gasoline to well above ten percent, the maximum concentration that is feasible in order to avoid corrosion damage in older vehicles.    Because of those challenges, EPA has been scaling back the requirements of EISA. That strategy decreases compliance costs in the short run, but it also reduces incentives for companies to invest in the production capacity for advanced biofuels and to expand the availability of high ethanol blends.    CBO also examined how prices for food and fuel would vary in an illustrative year, 2017, based on three scenarios. The first, the 2016 volume scenario, is one in which the EPA would keep the RFS requirements for 2017 at the same amounts it has proposed for 2016. The second, the EISA volume scenario, is one in which fuel suppliers would have to meet the total requirements for renewable fuels and for advanced biofuels that are stated in EISA for 2017 but not the requirement for cellulosic biofuels. The final scenario was one in which lawmakers would immediately abolish the RFS.    CBO found that food prices would be similar under the three scenarios. To the extent that the RFS increased the demand for corn ethanol, it would raise corn prices and put upward pressure on prices of foods made with corn.    Under the EISA volume scenario, CBO estimated--sorry. Under the EISA volume scenario, CBO estimated that the resulting increase in the demand for corn would raise the average price of corn by about three percent relative to the 2016 volume scenario. However, because corn and food made with corn account for only a small fraction of total U.S. spending on food, that total spending would only increase by about 1/10 of 1 percent.    The effect that repealing the RFS would have on the price of corn is limited because suppliers would probably find it cost-effective to use a roughly ten percent blend of corn ethanol in gasoline in 2017 even in the absence of the RFS. As a result, CBO estimates that, in comparison with the 2016 volume scenario, repealing the RFS would cause food prices to fall by less than 1/10 of 1 percent.    In contrast, CBO found that the prices of transportation fuels would vary significantly under the three scenarios. Compared with the 2016 volume scenario, we found that complying with the EISA volume scenario would increase the price of petroleum-based diesel by 25 cents to 45 cents per gallon. We also estimated that the price of E10, a blend of fuel that contains up to ten percent ethanol and which is currently the most commonly used transportation fuel in the United States, would rise by 15 cents to 30 cents.    CBO found that complying with the EISA volume scenario would reduce the price of E85, a blend containing up to 85 percent ethanol, by roughly 80 cents to $1.20.    Finally, compared with the 2016 volume scenario, CBO estimates that repealing the RFS would have only small effects on fuel prices. Specifically, we estimate that repealing the RFS would have essentially no effect on the 2017 price of E10, would lower the price of petroleum-based diesel by roughly 5 cents, and would increase the price of E85 by about 15 cents.    Thank you again for this opportunity to testify, and I will be happy to answer any questions that you might have on CBO's analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Dr. Dinan.    I now recognize Mr. Anderson for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Anderson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Anderson. Good morning, Chairman Bridenstine, Chairman Loudermilk, Ranking Members Bonamici and Beyer, and members of the subcommittees.    My name is Ed Anderson. My wife Judy and I, with our sons Eddie and Jeff, own a small Wendy's franchise with 11 restaurants in Virginia. We have 385 employees. I am also on the board of Wendy's Quality Supply Chain Co-op, QSCC, a not-for-profit purchasing co-op owned by Wendy's restaurant operators like me. QSCC purchases the food for Wendy's and is staffed by experts who understand and help us interpret commodity markets.    The National Council of Chain Restaurants asked me to testify on behalf of the local small business chain restaurant community.    In July 2013, I testified at a similar hearing on the RFS before the House Energy and Commerce Committee. Until then, I had never done anything like this and never imagined that I would. I run restaurants, but I have a responsibility to my family, employees, fellow franchisees, customers, and our industry to explain to policymakers that the well-intended RFS has turned out to be a very serious problem.    Judy and I are the face of American small business men and women. We've worked for decades to build our business, but when Congress passed the Renewable Fuel Standard, it created a new burden for businesses like ours. Now restaurant owners and employers like us are being hurt at a time when our country can't afford it.    The last time I was here I doubted many restaurant operators, let alone our customers, knew that a federal government mandate called the RFS is at the root of food cost increases. But more and more of us in the food business understand the RFS is a big mistake, and the average consumer is starting to catch on, too.    There have been several studies of the RFS impact on food commodity volatility and costs. A study from PricewaterhouseCoopers in late 2012 found that the RFS is costing the chain restaurant segment of the restaurant industry, which is the segment I and thousands of small business franchisees are in, up to $3.2 billion in higher food commodity costs every year.    My own analysis is that the RFS is costing my small company up to $34,000 more in higher food costs per restaurant each and every year. For our family, that's up to $374,000 a year in additional costs. That might not be a lot of money in Washington, D.C., but for me and many others in the restaurant business that's a lot of money.    If Congress repealed the RFS, it would level the playing field and over time return normalcy to the commodities market so everyone competes fairly and food becomes more affordable. It's the RFS that distorts the market so much that restaurants, our suppliers, and consumers are forced to pay more than we would under normal market conditions.    Please understand we're not anti-ethanol. We know if it wasn't for American farmers and ranchers, we wouldn't be here. We get all our beef and chicken from the United States and Canada. But this mandate is making food so expensive that it's harder to continue investing in new or remodeled restaurants, which would create badly needed construction and restaurant jobs.    I believe with all my heart that we live in the greatest country in the world. It was built on the hard work and the ingenuity of those willing to risk it all to build something, creating jobs and opportunity for others along the way. Removing the mandate for ethanol allows that industry to stand on its own, like Judy and I do, like our sons who work for us do.    Capitalism allows us all to adjust and be successful. Let the market, not a mandate, dictate the cost of corn. We can't pass these costs on to our customers. They're already struggling in this economy, and their own food costs at grocery stores have also gone up because of the RFS.    We're appealing to Congress to provide relief from this policy which distorts food commodity markets and harms consumers and everyone in the food chain. Congress created the RFS, so it's up to Congress to repeal it.    Thoughtful lawmakers in both the House and Senate introduced legislation to repeal or significantly reform the RFS. H.R. 703 and 704 would repeal the entire RFS or repeal the worst part of it, the corn ethanol mandate. Both bills enjoy growing bipartisan support.    The RFS was a big mistake and it's broken beyond repair. We came here today to respectfully ask Congress to repeal it. Judy and I are here as small business owners, as employers, and as a family to bring attention to the real-life impact the RFS has had and to ask Congress to take action for all of us, because without your action, this situation will only get worse.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Anderson.    Dr. DeCicco, you are recognized for five minutes.</t>
   </si>
   <si>
-    <t>DeCicco</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. DeCicco. Thank you. And I wish to thank the Chairman----</t>
   </si>
   <si>
@@ -133,18 +112,12 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coleman. Thank you. Good morning, Chairman Bridenstine, Chairman Loudermilk, Ranking Members Bonamici and Beyer, and Members of the Subcommittee. My name is Brooke Coleman. I run something called the Advanced Biofuels Business Council.    The council represents worldwide leaders in the efforts to develop and commercialize next-generation advanced and cellulosic biofuels ranging from cellulosic ethanol made from switchgrass, which is an agricultural waste, to advanced biofuels made from sustainable energy crops, municipal solid waste, and algae. We are honored to be here today to help accurately assess the impacts of the federal Renewable Fuel Standard.    When I was thinking about my testimony today, it was quite clear that I would be giving a counter-perspective, and I want to give it. The RFS in my opinion is one of the most effective energy policies ever passed by Congress. Its notoriety stems not from its failures and unforeseen costs, as alleged, but instead its effectiveness in breaking the oil monopoly that leaves our economy and our environment at risk.    So if we're going to assess the RFS from a ten-year perspective, let's look a little bit back at what we--where we were ten years ago. We were in the middle of an MTBE crisis where the oil industry used a gasoline additive to avoid ethanol that polluted drinking water. The political deal in essence that happened on RFS1 was a way to facilitate getting MTBE out of gasoline and out of our families' drinking water, and it happened in less than a year because Congress sent a clear market signal that ethanol, a homegrown American renewable product, would replace MTBE in the marketplace.    A couple years later, Congress decided to pass a stronger RFS, and RFS2 passed in December 2007, built upon those successes and now supports more than 800,000 American jobs in 29 States, producing homegrown renewable fuels as an alternative to foreign oil.    This industry now displaces the foreign oil equivalent almost of Saudi Arabia and approximately Ecuador, and now we are innovating. I just returned from Nevada, Iowa, where DuPont just opened the largest cellulosic ethanol plant in the world. The plant will produce biofuel from corn silver, the unused part of the corn plant collected from local farms within 100 miles of the facility.    Quad County Syngenta was one of the first if not the first to produce commercial volumes of cellulosic biofuels. Their Cellerate technology produces cellulosic ethanol that is 129 percent better than gasoline on carbon emissions, reduces energy inputs, and increases the quality and quantity of production co-products like corn oil and cattle feed.    Abengoa and POET/DSM are deploying similar technologies using agricultural waste to make the lowest carbon, most innovative fuel in the world.    One more example, a member of mine, Fulcrum BioEnergy, just signed a $60 million deal with United Airlines to make intermediate biocrude and bioJet.    Unfortunately, the program's clear record of success is often lost in the cloud of misinformation kicked up by the oil industry and the so-called researchers, fellows, and experts funded by them. Just as the oil industry has been able to finance doubt about climate change, they are doing a heck of a job financing doubt about their primary competitor in biofuels.    I want to touch on a couple of these examples, and I hope that we can touch on some of the reports and positions that we have mentioned during Q&amp;A. The first is this notion that we are in a free market. It has been mentioned--it was mentioned by the Chairman; it was mentioned by multiple experts up here today. This is not a free market. The oil markets are controlled at the top by OPEC. They are controlled here in the United States by vertically integrated, highly consolidated oil companies.    We need the RFS because we can't get shelf space. We have to sell to our primary competitors who want to see us fail in order to gain market access. The problem is we are experiencing what it is like to be in a market-controlled environment as we speak. We don't have low gasoline prices because we have efficiency, we don't have low gasoline prices because suddenly our economy is doing something different. We have low gasoline prices because OPEC made a decision one year ago to drive down the price of fuel to put the U.S. oil boom on its heels and to kill oil rig counts in this country.    So OPEC is killing the very thing that the oil industry says we don't--is the reason we don't need the RFS anymore. In essence, the RFS is a hedge against this market power and allows our industry to grow and innovate over time with an expectation of market. If you give us a true free market, we will give you the RFS.    Finally, with my last 25 seconds, I'd like to say one of the most incredible arguments made against us is the food price argument. I have compassion, of course, for franchise owners, but the problem is that corn prices today are lower than they were when President Bush signed this law in 2007. It is hard for me to believe that the RFS is increasing food costs when the primary reason that the restaurants claim while they pull in record profits over the last ten years, this year, is that corn prices are increasing when they're actually decreasing.    So one of the things I would like to do and have the opportunity to do as we move forward in Q&amp;A is discuss some of these issues, and I look forward to that very much. But I'm confident that the facts will prevail on the RFS discussion, and I appreciate the opportunity to speak today.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Coleman.    Mr. Drevna, you're recognized for five minutes.</t>
   </si>
   <si>
-    <t>Drevna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Drevna. Chairmen Bridenstine and Loudermilk, Ranking Members Bonamici and Beyer, I am Charlie Drevna, Senior Fellow at the Institute for Energy Research.    You know, once Milton Friedman famously posited that one of the great mistakes is to judge policies and programs by their intentions rather than their results. If he were alive today, Friedman would point to the RFS as a prime example of his belief.    In the mid-2000s and even before, so-called industry analysts and renowned economists predicted ever-increasing gasoline demand as they simultaneously declared the United States to be energy-scarce. The Nation was on a path according to the self-anointed experts to reliance on ever-increasing foreign sources of energy, much of which came from potentially unstable regions of the world.    Congress and the Administration accepted the reviews, and in 2005 adopted the Energy Policy Act, which required refiners to blend 7.5 billion gallons of ethanol into the gasoline pool by 2012. In less than two years, this nuisance of free market interference became a full-blown anti-consumer, anti-free market debacle as EISA '07 mandated 36 billion gallons of renewable fuels, some of which actually existed, be blended into domestic transportation fuels by 2022.    In essence, the predictions of 2007 and earlier are the polar opposite of the realities of 2015. Confounding the problem is the undeniable fact that advanced biofuels production, the anticipated linchpin of the RFS, has fallen woefully short of the numerous promises made since 2007.    I'm sure the Committee is familiar with such names as Range Fuels, KiOR, Blue Sugars, Absolute Fuels, New Energy Fuels, Green Diesel, and a host of others, most of whom have squandered taxpayer dollars or committed fraud, or both, and yet today we continue to hear that the economic production of cellulosic fuels is ``right around the corner.'' It's a big corner.    What's clear is that neither Congress nor EPA can mandate innovation or favorable economics, try as they may. The hard sciences of chemistry and physics remain immune to political science, and they remain formidable obstacles to economic production of commercial-scale cellulosic fuels. However, one should not discount the innovation provided by EPA to assist in this effort. EPA stipulates that ethanol produced from sugarcane qualifies in advanced biofuel. That's helping to meet the statutory volume requirements. What's ironic about this news is that ethanol produced from sugarcane is imported mostly from Brazil. So much for that homegrown stuff. And the intent--and what was the intent of the RFS to limit imported fuels? Okay.    So what State virtually imports all of this biofuel? Well, that would be California. And why California? The State's low carbon fuel standard requires refiners to use millions of gallons of advanced biofuel, and imported sugarcane is the only available product that fits that definition, as unscientific as that definition is. Yes, that's correct. California prohibits ethanol from U.S. producers and imports it from Brazil. This allows California legislators and regulators to promote themselves as pioneers in the green movement.    So what happens to the ethanol from the U.S. producers that would've otherwise gone and been delivered to California? The Brazilians don't care if their ethanol comes from sugar or corn, so California and Brazil swap their ethanol, literally two ships passing in the night. The net outcome, higher shipping costs, and ironically, increases in GHG emissions.    Not satisfied with the overall results, EPA then decided to enhance the total production of cellulosic fuels not via scientific breakthrough. Rather, it would be much simpler to change the definition of cellulosic fuels to include a portion of biogas produced from landfills. If you look at the volume increases in cellulosic production 2014 through '15, it's nearly all attributable to EPA semantics. Why let pesky little details such as chemical structure and definition get in the way of a predetermined outcome?    If one were to be intellectually honest, the RFS was never about energy security, the environment, or national security. It's been accurately described as crony capitalism, although the use of the term capitalism in reference to the RFS is a basic non sequitur. It may be much more accurate to label the RFS and other anti-free market mandates, subsidies, and giveaways for what they really are: government attempting to pick the winners and losers in the marketplace. And the government's track record is most illustrative as its penchant for picking losers is quite outstanding.    Even if the intentions of the RFS were noble, the program must be judged on its results. It's past time for Congress to admit that the RFS has not delivered and will not deliver anticipated results. The law should be repealed and allow for American ingenuity, entrepreneurship, and free-market enterprise to do what it does best. They haven't failed the nation yet.    Thank you very much.                  </t>
   </si>
   <si>
@@ -331,9 +304,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the Ranking Member.    I recognize Mr. Weber from Texas for five minutes.</t>
   </si>
   <si>
-    <t>Weber</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    And Dr.--is it Dinan?</t>
   </si>
   <si>
@@ -484,9 +454,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. Thank you. I guess we are out of witnesses on that end, so we'll go with Mr. Babin also from Texas.</t>
   </si>
   <si>
-    <t>Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman, and thank you, witnesses, for being here.    I--maybe I missed this a while ago but, Dr. DeCicco, can you tell me a little more about why corn ethanol is worse for air quality the gasoline? That may have already been asked and hashed but----</t>
   </si>
   <si>
@@ -541,9 +508,6 @@
     <t xml:space="preserve">    Chairman Bridenstine. Okay. The gentleman, Mr. Abraham, is recognized from Louisiana.</t>
   </si>
   <si>
-    <t>Abraham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Abraham. Mr. Coleman, I see you on the button. Give me your opinion if we repealed the RFS. What would that do to general farm prices right now? They're low already, the commodity prices. What would the total repeal of the RFS do to the----</t>
   </si>
   <si>
@@ -583,9 +547,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank the witnesses for being here today. These are some fascinating subjects, and I'm struggling a little bit on which one to address here. We've got land use and a clean environment. With got the law of conservation of mass and energy and energy conservation or net energy gain or the carbon cycle and economics versus of real versus inflationary food costs. These are all things that I like to talk about.    But let's start off with the carbon cycle and land use. And, Dr. DeCicco, if I understand your argument that there's--and getting back to the law of conservation of mass and energy, there's only so much carbon in the world, and the question is where's that carbon going to be located? It's either going to be in the atmosphere or is going to be sequestered somewhere under the ground or in biomass here on the earth. And if we create a new crop source to make ethanol or corn, then you're going to be clearing more land to produce this corn. So you're changing land-use and putting a crop there that's going to be planted and harvested every year.    I remember being at a conference on renewable energy where they were showing in South America where they had cleared this highly productive land to grow--I don't remember if it was sugar beets or corn, but in the photo there was timber from a rainforest stacked up in a perimeter around the land. It was used to keep animals out of the crop.    But as we look at that, something we haven't talked about is the energy gained from corn ethanol. And the research that I've looked at show that somewhere between 1 to 1.3, maybe even as high as 1.6 on the energy put into producing corn ethanol versus the energy that you get out. We've been talking more about the carbon balance on it. But if we look at other forms of cellulosic ethanol or biomass, even though the processes haven't been refined, the numbers on the net energy gain are much higher than what we see on corn ethanol.    So are you saying we should totally abandon all renewable fuels, or is there room for more research to develop some of these cellulosic ethanol technologies maybe from woody biomass that do have even a bigger carbon cycle effect?</t>
   </si>
   <si>
@@ -638,9 +599,6 @@
   </si>
   <si>
     <t>412674</t>
-  </si>
-  <si>
-    <t>Darin LaHood</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. And, Mr. Chairman and Chairman Loudermilk, I look forward to working with you on this issue, and appreciate the testimony of the witnesses here today.    I'm brand new, come from Illinois, Ag is the number one industry in our state. And in hearing the testimony particularly from Dr. DeCicco and Mr. Drevna, I mean, it really seems incongruent when you look at the genesis of the law and going back and looking at the Energy Policy Act of 2005 and the EISA law of 2007. And at the signing ceremony there, the emphasis on why that was put in place, the RFS, you know, President Bush talked about protecting the environment, strengthening our energy security, supporting American farmers.    And you listen to that and also the Secretary of Energy at the time Samuel Bodman and Secretary Johanns, who's now a U.S. Senator, and you listen to what they said then and how that's played out and then you hear the testimony here today, they're in conflict. And I'm trying to rationalize that and figure out where the truth lies.    And I guess in looking at my own district, I have a very rural district in central and west central Illinois. And I think in my district--ag is the number one industry in the State of Illinois. We have--you know, we have some of the most fertile farmland in the entire world. And I look at what it does in Illinois in terms of what it's done for our consumers.    I don't--to be honest with you, Mr. Anderson, I don't hear much complaints about food prices going up in my district. We have some big livestock operations there, you know, we have some of the highest yields we've had, energy prices and gasoline prices have been low in Illinois, and then you--our air pollution has gone down almost every year in Illinois.    So I look at those tangible benefits and I also look at the jobs that are created in Illinois through agriculture, whether that's John Deere or ADM or Caterpillar. There are lots of small and medium-sized businesses that have benefited from this law.    And I guess in looking at, Dr. DeCicco, the flaws that you laid out--and I have to admit I don't know much about carbon neutrality or violation of carbon mass--some of these flaws, but I guess in looking at the genesis of this bill and what was put forward and the rationale and how that's playing out, I guess I have not heard from--whether that's Secretary Bodman or Secretary Johanns--on acknowledging these flaws or making statements that the law somehow was incorrect and we need to amend that or revise that. Can you comment on that?</t>
@@ -1078,11 +1036,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1104,11 +1060,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1130,11 +1084,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1156,11 +1108,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1180,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1208,11 +1156,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1232,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1260,11 +1204,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1284,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1312,11 +1252,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1338,11 +1276,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1364,11 +1300,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1390,11 +1324,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1416,11 +1348,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1442,11 +1372,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1468,11 +1396,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1494,11 +1420,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1518,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1546,11 +1468,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1572,11 +1492,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1598,11 +1516,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1624,11 +1540,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1650,11 +1564,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1676,11 +1588,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1702,11 +1612,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1728,11 +1636,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1754,11 +1660,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1780,11 +1684,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1806,11 +1708,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1832,11 +1732,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1858,11 +1756,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1884,11 +1780,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1910,11 +1804,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1936,11 +1828,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1960,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1988,11 +1876,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2012,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2040,11 +1924,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2066,11 +1948,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2090,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2116,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2142,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2168,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2194,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2220,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2246,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2272,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2298,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2326,11 +2188,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2350,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2378,11 +2236,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2402,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2430,11 +2284,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2454,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2482,11 +2332,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2506,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2534,11 +2380,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2558,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2586,11 +2428,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2610,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2638,11 +2476,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2662,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2690,11 +2524,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2714,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
-      </c>
-      <c r="G65" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2742,11 +2572,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2766,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2794,11 +2620,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2818,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2846,11 +2668,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2870,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2898,11 +2716,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2922,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2948,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2974,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3002,11 +2812,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>34</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3026,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3054,11 +2860,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3078,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3106,11 +2908,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>34</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3130,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3158,11 +2956,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>34</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3182,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3210,11 +3004,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3236,11 +3028,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>105</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3262,11 +3052,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3288,11 +3076,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>105</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3314,11 +3100,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3340,11 +3124,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>105</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3366,11 +3148,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3392,11 +3172,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>105</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3418,11 +3196,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>34</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3444,11 +3220,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>105</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3470,11 +3244,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3496,11 +3268,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>105</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3520,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
-      </c>
-      <c r="G96" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3548,11 +3316,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>105</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3574,11 +3340,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>42</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3600,11 +3364,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>105</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3626,11 +3388,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>42</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3652,11 +3412,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>105</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3678,11 +3436,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>42</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3704,11 +3460,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>105</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3728,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3756,11 +3508,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>105</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3782,11 +3532,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>42</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3808,11 +3556,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>105</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3834,11 +3580,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>42</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3860,11 +3604,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>105</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3886,11 +3628,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>42</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3912,11 +3652,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>105</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3938,11 +3676,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>42</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3964,11 +3700,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>105</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3990,11 +3724,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>42</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4016,11 +3748,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>105</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4042,11 +3772,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>42</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4068,11 +3796,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>105</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4094,11 +3820,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>42</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4120,11 +3844,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>105</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4146,11 +3868,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>42</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4172,11 +3892,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>105</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4196,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4224,11 +3940,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>105</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4248,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
-      </c>
-      <c r="G124" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4276,11 +3988,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>105</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4300,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
-      </c>
-      <c r="G126" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4328,11 +4036,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>105</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4354,11 +4060,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>42</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4380,11 +4084,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>105</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4404,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4432,11 +4132,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>105</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4456,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
-      </c>
-      <c r="G132" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4484,11 +4180,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>105</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4508,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
-      </c>
-      <c r="G134" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4536,11 +4228,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>105</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4560,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4588,11 +4276,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>105</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4612,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
-      </c>
-      <c r="G138" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4640,11 +4324,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>105</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4666,11 +4348,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4692,11 +4372,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>156</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4718,11 +4396,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>34</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4744,11 +4420,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>156</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4770,11 +4444,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>34</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4796,11 +4468,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>156</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4822,11 +4492,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>34</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4848,11 +4516,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>156</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4874,11 +4540,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>34</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4900,11 +4564,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>156</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4926,11 +4588,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4952,11 +4612,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
         <v>156</v>
-      </c>
-      <c r="H151" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4978,11 +4636,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>28</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5004,11 +4660,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>156</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5030,11 +4684,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5056,11 +4708,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>28</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5082,11 +4732,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5108,11 +4756,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>28</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5134,11 +4780,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5160,11 +4804,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>175</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5184,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
-      </c>
-      <c r="G160" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5212,11 +4852,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>175</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5236,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
-      </c>
-      <c r="G162" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5264,11 +4900,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>175</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5288,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
-      </c>
-      <c r="G164" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5316,11 +4948,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>175</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5340,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
-      </c>
-      <c r="G166" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5368,11 +4996,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>175</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5392,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>38</v>
-      </c>
-      <c r="G168" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5420,11 +5044,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>175</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5446,11 +5068,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5470,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>188</v>
-      </c>
-      <c r="G171" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5498,11 +5116,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>34</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5522,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>188</v>
-      </c>
-      <c r="G173" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5550,11 +5164,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>34</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5574,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>188</v>
-      </c>
-      <c r="G175" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5602,11 +5212,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>34</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5626,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>188</v>
-      </c>
-      <c r="G177" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5654,11 +5260,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5678,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
-      </c>
-      <c r="G179" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5704,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>38</v>
-      </c>
-      <c r="G180" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5730,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
-      </c>
-      <c r="G181" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5758,11 +5356,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>42</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5784,11 +5380,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5810,11 +5404,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>42</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5836,11 +5428,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5860,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>188</v>
-      </c>
-      <c r="G186" t="s">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5888,11 +5476,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5912,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
-      </c>
-      <c r="G188" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5940,11 +5524,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5964,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>207</v>
-      </c>
-      <c r="G190" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5992,11 +5572,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>34</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6016,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>207</v>
-      </c>
-      <c r="G192" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6044,11 +5620,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6068,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>24</v>
-      </c>
-      <c r="G194" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6094,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>38</v>
-      </c>
-      <c r="G195" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6120,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>24</v>
-      </c>
-      <c r="G196" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6146,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>38</v>
-      </c>
-      <c r="G197" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6172,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>24</v>
-      </c>
-      <c r="G198" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6200,11 +5764,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6226,11 +5788,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>42</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97766.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97766.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Bridenstine. The Subcommittee on Environment and Oversight will come to order.    Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing entitled the ``Renewable Fuel Standard: A Ten-Year Review of Costs and Benefits.'' I recognize myself for five minutes for an opening statement.    Good morning, and welcome to today's joint hearing of the Environment and Oversight Subcommittees examining the Renewable Fuel Standard. Today, we will hear from witnesses on the cost and environmental impact of this complex and misguided mandate, as well as the future consequences if Congress does not take action.    The RFS is an example of the federal government picking winners and losers by forcing the use of renewables in transportation fuels. The mandate was supported by a bipartisan coalition, the ethanol industry, and environmental organizations; and justified by claims of environmental benefits and enhanced U.S. energy security.    Unfortunately, but not surprisingly, eight years after the current RFS was expanded by Congress as part of the Energy Independence and Security Act of 2007, these promises have yet to materialize. Congress designed the RFS using flawed projections about gasoline consumption, availability of renewable fuel infrastructure, bio-refinery technology, and the market demand for renewable fuels. In almost every category, these projections do not reflect today's energy market.    Today, demand for gasoline is significantly lower than was forecast when the RFS became law. A sluggish economy and improvements in vehicle energy efficiency continue to hold down gasoline consumption. And technology advancements have unlocked our domestic resources of oil and gas to an extent that was not anticipated when the RFS was designed.    Incorporating renewable fuels was supposed to deliver environmental benefits. But time and again, researchers, including one of our witnesses today, have found that corn ethanol produced to meet the RFS makes air quality worse, and has higher lifecycle emissions than gasoline. And while corn-based fuel ethanol production, supported by the requirements of this standard, has grown substantially since EISA became law, the advanced biofuels and cellulosic ethanol industries expected under the RFS still aren't ready for primetime.    The RFS is an egregious perversion of the free market. Instead of a transportation fuel market driven by consumer demand, we are stuck with a complex mandate based on outdated assumptions about gasoline demand, environmental impact, and technological readiness. Each year, the RFS requires still higher volumes of renewable fuel, which now exceed the volumes that can be accommodated given current gasoline demand.    The RFS mandate is unworkable even with EPA's dubious assertion that E15 can safely be used in select vehicles, even though most vehicles were designed to use E10, gasoline containing not more than ten percent ethanol. This is on top of the simple fact that consumers do not want these fuels. Just .5 percent of what HollyFrontier--a merchant refiner with facilities in my district--sells are products greater than E10, one-half of one percent.    And because the ethanol blending volumes required under law are impossible to meet with the current production levels of E10, E15, and other higher level ethanol blends, including E85, refiners are left at the mercy of uncertain annual waivers from the EPA. I'm going to repeat that. Refiners are left at the mercy of uncertain annual waivers from the EPA to keep the mandatory blending volumes at achievable levels. When EPA even bothers to follow the law and announce annual requirements--and that is when EPA bothers to follow the law and announce annual requirements on time.    Refiners have had to file lawsuits to get the EPA to do their job and announce the annual blend levels, which is absurd. Congress cannot continue to sit back and leave the EPA to manage the consequences of an unrealistic and poorly crafted law.    So what is the end result of this confusing mandate? American consumers are stuck with higher prices across the economy. The mandate has already increased prices at the pump, and if the RFS is enforced as enacted, the Congressional Budget Office estimates that E10 fuel prices could increase by 15 percent or more by 2017.    By increasing demand for corn, the RFS also distorts commodity prices, raising the cost of food for American families. We will hear testimony that the RFS costs the chain restaurant industry $3.2 billion a year in higher food prices, which must be passed on to consumers, our constituents.    The federal government's RFS mandate has led to multiple negative consequences, propelled by willful disregard for consumer preferences and flawed economic and environmental assumptions. Demand for fuels with blends of ethanol greater than E10 is very limited, even with the most favorable market conditions. And more corn ethanol hasn't helped the environment. It hasn't reduced costs or encouraged the development of commercial-scale advanced biofuels.    Federal mandates are the wrong approach to fuel innovation, and the RFS is a prime example of the elites in Washington, D.C., believing they know best, imposing a misguided standard, then standing back while it damages our economy.    I want to thank our witnesses today for testifying on the challenges of the RFS--testifying on the challenges the RFS has created in today's energy market, and I look forward to a discussion about the consequences caused by the federal government's intervention in the American energy market.    It's time for Congress to fix the problems caused by this outdated and ill-conceived law and pass legislation to repeal the RFS.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. I now recognize the Ranking Member, the gentlewoman from Oregon, for an opening statement.</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and thank you to our witnesses for being here today to discuss the history and future of the Renewable Fuel Standard.    In 2005, Congress established the Renewable Fuel Standard as a way to both reduce our dependence on foreign oil and reduce greenhouse gas emissions. The RFS policy also had the added benefit of advancing rural economic development. In 2007, Congress expanded the RFS to drive additional innovation and investment in the biofuels industry. And now, ten years later, the original goals and motivation for the Renewable Fuel Standard still remain valid.    Despite this fact, we will hear today from some who will assert that the RFS is a failed policy and that it should be repealed. I respectfully disagree. Our nation's long-term economic and energy security is tied to our ability to diversify our energy portfolio and to transition to lower carbon energy sources.    Biofuels have an important part to play in this energy future. It would be better if we were further along, but the Renewable Fuel Standard has been, and should continue to be, a critical mechanism for fostering the development of this emerging industry.    In my home State of Oregon, we've recognized the significant opportunities in biofuels, especially with our State's strong agriculture and forestry industries. For example, Red Rock Biofuels is investing about $200 million to build a biorefinery facility in southern Oregon where they will transform waste biomass from forests and sawmills into jet fuel. Now, that's a place that really needs the jobs, down there in southern Oregon. Red Rock plans to sell 6 million gallons of its renewable jet fuel each year to Southwest Airlines and FedEx Express. This type of innovation will greatly reduce the carbon footprint of our airlines and create jobs in an area that needs them.    Additionally, in my Congressional district, Summit Natural Energy converts food processing and agricultural wastes into bioethanol for racecars. And I've spoken with the racecar drivers. They rave about this product.    The potential of biofuels, especially advanced biofuels, in addressing climate change is real and it is something that we should be encouraging, not trying to undermine. Reducing carbon pollution from the transportation sector is critical in our fight against climate change, and the economic costs of not acting are catastrophic.    In fact, a recent report by Citigroup GPS shows that the costs of climate inaction could be up to $44 trillion by 2060. We need to use a variety of mechanisms to curb greenhouse gases, and the RFS is one of these tools. Most recent estimates of the Argonne National Laboratory's Greenhouse Gases, Regulated Emissions, and Energy Use in Transportation model have shown that corn ethanol can produce up to 48 percent less greenhouse gases than gasoline across the entire lifecycle.    Investments in first-generation biofuels are serving as an important bridge to the development of advanced biofuels, including cellulosic biofuels. Just last week, DuPont opened the world's largest cellulosic ethanol plant in Iowa. If done correctly in a sustainable and thoughtful manner, we can produce biofuels that will lower carbon emissions of our transportation sector.    A viable competitive advanced biofuels industry relies on the infrastructure developed for the first-generation conventional biofuels. The RFS was designed to provide market certainty to drive the production of domestically produced biofuels. We have seen what an industry can do when given a strong market signal, a signal that the RFS can provide.    Overreliance on a limited range of technologies and finite resources is unreasonable. Our nation cannot drill our way to energy security and a thriving economy. We must continue to take steps to mitigate climate change. We need to unleash the creativity of our scientists, engineers, and entrepreneurs, and the Renewable Fuel Standard is an important tool in spurring innovation and unlocking our energy potential.    Thank you very much, Mr. Chairman. I look forward to hearing from the witnesses, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Well, thank you, Mr. Chairman, and witnesses for being here with us today.    I'd like to thank you for taking your time to come here and discuss this extremely important matter that we're facing.    Today, we're here to examine the big-picture challenge of the Renewable Fuel Standard and its impact on our country and the American people. Ten years ago, supporters of the RFS promised to put our country on a path to being cleaner, greener, and more energy independent in a time of heavy dependence on foreign oil and high gas prices. Back then, gasoline consumption was on the rise, America relied on foreign oil, and renewable fuels were just starting to become an option for consumers.    Fast-forward to today where the demand for gasoline is decreasing, our country is now considering exporting crude oil, and we know that ethanol and biofuels are not as clean as we once thought.    In the Committee's hearing on the RFS this summer, we heard testimony from Dr. Jason Hill from the University of Minnesota, who debunked the misnomer that corn ethanol is cleaner than regular gasoline. Dr. Hill acknowledged that while ethanol fuels generally burn cleaner than gasoline at the tailpipe, if you look at the lifecycle emissions of ethanol, you can see that the process of growing and fermenting grain, and distilling, distributing, and combusting ethanol releases far more of the five particulate pollutants that contribute to increased particulate matter 2.5 and ozone levels than gasoline. In short, corn-based ethanol is simply not cleaner than gasoline.    Dr. DeCicco, who joins us today, has conducted careful analysis of more than 100 related studies concluding that serious flaws exist in the government-sponsored modeling used to justify the RFS. It comes as no surprise that the Office of Inspector General for the EPA announced this month that they are planning to investigate whether the EPA complied with the reporting requirements associated with the RFS. The IG will also be examining whether the EPA appropriately updated the lifecycle analysis supporting the RFS with findings from studies mandated in the statute on the environmental impacts of biofuels. We look forward to their findings.    It is also clear that the demand today for biofuels is far less than the EPA anticipated it would be. In our last hearing we heard from CountryMark, a farmer-owned integrated oil company that sells E10, E15, and E85 fuel at its stations. This farmer-owned small business refiner cannot sell E85 to the very farmers who grow the corn used for the ethanol it's blended because there is no demand for this fuel.    It is also becoming clear that Americans are ill- equipped to make smart decisions about gasoline choices entering the marketplace. According to a recent study conducted by the Outdoor Power Equipment Institute, Americans choose to purchase gasoline based on price and simply don't pay attention to the warning labels placed at the pump. This results in consumers using fuels with higher blends of ethanol in lawnmowers, chainsaws, generators, and other small engine equipment that are not certified to use those fuels. This can cause damage or permanently destroy those products.    And with that, Mr. Chairman, I would like to enter into the record a letter from Todd Teske, President of Briggs &amp; Stratton, which outlines these points in further detail.</t>
   </si>
   <si>
@@ -82,24 +97,39 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    And thank you, Chairmen Bridenstine and Loudermilk, for holding today's hearing, and thank you to the witnesses for testifying.    The greatest challenge of this generation--climate change--requires innovative solutions if we ever hope to make a meaningful difference. It requires us to look at every aspect of our energy production and consumption. We must find ways to end our dependence on fossil fuels and reduce our greenhouse gas emissions.    The Renewable Fuel Standard has helped us push the technological limits and the capacity of industry to innovate our transportation fuels. In the past ten years, we've seen increasing production of biofuels from both corn ethanol and advanced biofuels. And this increase has come with considerable advancements in how corn ethanol is produced, improving production efficiencies, while decreasing both the costs and the greenhouse gas emissions.    The Renewable Fuel Standard was designed to integrate all biofuels into our fuel supply and lay the groundwork for growth and development of advanced biofuels with a 50 percent reduction in greenhouse gas emissions compared to that of conventional gasoline. And I'm interested in learning more about the advancements in this area and where we can expect biofuels to be in the next ten years.    We realize there have been challenges. The EPA is prepared to finalize the volumetric requirements for 2014, 2015, 2016 next month while missing--or later this month--after missing the statutory deadline two years in a row. And while they're inundated with public comments during the proposal process, that doesn't excuse the lengthy delay.    The Agency has issued waivers for the required cellulosic biofuels and plans to do so again, but I hope that the proposed biometric obligations can be finalized by November 30 deadline, provide market certainty, and signals to investors that the United States intends to be a world leader in the development and production of these advanced fuels.    With a wide-ranging body of research looking at every aspect of production and a range of stakeholders that have advocated for almost every different scenario available, we as lawmakers are left with difficult decisions to make. And I want to thank the witnesses again for providing expert testimony on this pressing topic.    Mr. Chairman, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Beyer.    Let me introduce our witnesses. Our first witness today is Dr. Terry Dinan, Senior Adviser at the Congressional Budget Office. Dr. Dinan received her bachelor's degree from John Carroll University and her Ph.D. in economics from Iowa State University.    Our next witness is Mr. Ed Anderson, President and CEO of WEN-GAP, LLC. Mr. Anderson received his bachelor's degree from Guilford College and currently owns 11 Wendy's franchises.    Our third witness today is Dr. John DeCicco, Research Professor at the University of Michigan Energy Institute. Dr. DeCicco received his bachelor's degree in mathematics from Catholic University, his master's degree in mechanical engineering from North Carolina State University, and his Ph.D. in mechanical engineering from Princeton University.    Our fourth witness today is Mr. Brooke Coleman, Executive Director of the Advanced Biofuels Business Council. Mr. Coleman received his bachelor's degree from Wesleyan University and his law degree from Northeastern.    Our final witness today is Mr. Charles Drevna, Distinguished Senior Fellow at the Institute for Energy Research. Mr. Drevna has over 40 years of extensive experience in legislative, regulatory, public policy, and marketplace issues involving energy and the environment. Prior to joining IER, he served as President of the American Fuel and Petrochemical Manufacturers. Mr. Drevna received his bachelor's degree in chemistry from Washington and Jefferson College.    I now recognize Dr. Dinan for five minutes to present her testimony.</t>
   </si>
   <si>
+    <t>Dinan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Dinan. Good morning, Chairmen Bridenstine, Chairman Loudermilk, Ranking Member Bonamici, Ranking Member Beyer, and members of the committee. Thank you for the opportunity to testify about the Renewable Fuel Standard. This testimony updates a Congressional Budget Office's report on the RFS, which was published in June 2014.    The RFS establishes minimum volumes of various types of renewable fuels that suppliers must blend into the U.S. transportation fuel supply. Those volumes, as defined by the Energy Independence and Security Act of 2007, or EISA, are intended to grow each year through 2022. To date, the requirements of the RFS have been met largely by blending gasoline with ethanol made from cornstarch. In the future, EISA requires use of increasingly large amounts of advanced biofuels, which include diesel made from biomass, ethanol made from sugarcane, and cellulosic biofuels.    CBO concludes that the rising requirements of EISA would be very hard to meet in the future because of two main obstacles. First, making cellulosic biofuels is complex and costly. Second, the increasing requirement for the total gallons of renewable fuels would push the average concentration of ethanol and gasoline to well above ten percent, the maximum concentration that is feasible in order to avoid corrosion damage in older vehicles.    Because of those challenges, EPA has been scaling back the requirements of EISA. That strategy decreases compliance costs in the short run, but it also reduces incentives for companies to invest in the production capacity for advanced biofuels and to expand the availability of high ethanol blends.    CBO also examined how prices for food and fuel would vary in an illustrative year, 2017, based on three scenarios. The first, the 2016 volume scenario, is one in which the EPA would keep the RFS requirements for 2017 at the same amounts it has proposed for 2016. The second, the EISA volume scenario, is one in which fuel suppliers would have to meet the total requirements for renewable fuels and for advanced biofuels that are stated in EISA for 2017 but not the requirement for cellulosic biofuels. The final scenario was one in which lawmakers would immediately abolish the RFS.    CBO found that food prices would be similar under the three scenarios. To the extent that the RFS increased the demand for corn ethanol, it would raise corn prices and put upward pressure on prices of foods made with corn.    Under the EISA volume scenario, CBO estimated--sorry. Under the EISA volume scenario, CBO estimated that the resulting increase in the demand for corn would raise the average price of corn by about three percent relative to the 2016 volume scenario. However, because corn and food made with corn account for only a small fraction of total U.S. spending on food, that total spending would only increase by about 1/10 of 1 percent.    The effect that repealing the RFS would have on the price of corn is limited because suppliers would probably find it cost-effective to use a roughly ten percent blend of corn ethanol in gasoline in 2017 even in the absence of the RFS. As a result, CBO estimates that, in comparison with the 2016 volume scenario, repealing the RFS would cause food prices to fall by less than 1/10 of 1 percent.    In contrast, CBO found that the prices of transportation fuels would vary significantly under the three scenarios. Compared with the 2016 volume scenario, we found that complying with the EISA volume scenario would increase the price of petroleum-based diesel by 25 cents to 45 cents per gallon. We also estimated that the price of E10, a blend of fuel that contains up to ten percent ethanol and which is currently the most commonly used transportation fuel in the United States, would rise by 15 cents to 30 cents.    CBO found that complying with the EISA volume scenario would reduce the price of E85, a blend containing up to 85 percent ethanol, by roughly 80 cents to $1.20.    Finally, compared with the 2016 volume scenario, CBO estimates that repealing the RFS would have only small effects on fuel prices. Specifically, we estimate that repealing the RFS would have essentially no effect on the 2017 price of E10, would lower the price of petroleum-based diesel by roughly 5 cents, and would increase the price of E85 by about 15 cents.    Thank you again for this opportunity to testify, and I will be happy to answer any questions that you might have on CBO's analysis.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Dr. Dinan.    I now recognize Mr. Anderson for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Anderson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Anderson. Good morning, Chairman Bridenstine, Chairman Loudermilk, Ranking Members Bonamici and Beyer, and members of the subcommittees.    My name is Ed Anderson. My wife Judy and I, with our sons Eddie and Jeff, own a small Wendy's franchise with 11 restaurants in Virginia. We have 385 employees. I am also on the board of Wendy's Quality Supply Chain Co-op, QSCC, a not-for-profit purchasing co-op owned by Wendy's restaurant operators like me. QSCC purchases the food for Wendy's and is staffed by experts who understand and help us interpret commodity markets.    The National Council of Chain Restaurants asked me to testify on behalf of the local small business chain restaurant community.    In July 2013, I testified at a similar hearing on the RFS before the House Energy and Commerce Committee. Until then, I had never done anything like this and never imagined that I would. I run restaurants, but I have a responsibility to my family, employees, fellow franchisees, customers, and our industry to explain to policymakers that the well-intended RFS has turned out to be a very serious problem.    Judy and I are the face of American small business men and women. We've worked for decades to build our business, but when Congress passed the Renewable Fuel Standard, it created a new burden for businesses like ours. Now restaurant owners and employers like us are being hurt at a time when our country can't afford it.    The last time I was here I doubted many restaurant operators, let alone our customers, knew that a federal government mandate called the RFS is at the root of food cost increases. But more and more of us in the food business understand the RFS is a big mistake, and the average consumer is starting to catch on, too.    There have been several studies of the RFS impact on food commodity volatility and costs. A study from PricewaterhouseCoopers in late 2012 found that the RFS is costing the chain restaurant segment of the restaurant industry, which is the segment I and thousands of small business franchisees are in, up to $3.2 billion in higher food commodity costs every year.    My own analysis is that the RFS is costing my small company up to $34,000 more in higher food costs per restaurant each and every year. For our family, that's up to $374,000 a year in additional costs. That might not be a lot of money in Washington, D.C., but for me and many others in the restaurant business that's a lot of money.    If Congress repealed the RFS, it would level the playing field and over time return normalcy to the commodities market so everyone competes fairly and food becomes more affordable. It's the RFS that distorts the market so much that restaurants, our suppliers, and consumers are forced to pay more than we would under normal market conditions.    Please understand we're not anti-ethanol. We know if it wasn't for American farmers and ranchers, we wouldn't be here. We get all our beef and chicken from the United States and Canada. But this mandate is making food so expensive that it's harder to continue investing in new or remodeled restaurants, which would create badly needed construction and restaurant jobs.    I believe with all my heart that we live in the greatest country in the world. It was built on the hard work and the ingenuity of those willing to risk it all to build something, creating jobs and opportunity for others along the way. Removing the mandate for ethanol allows that industry to stand on its own, like Judy and I do, like our sons who work for us do.    Capitalism allows us all to adjust and be successful. Let the market, not a mandate, dictate the cost of corn. We can't pass these costs on to our customers. They're already struggling in this economy, and their own food costs at grocery stores have also gone up because of the RFS.    We're appealing to Congress to provide relief from this policy which distorts food commodity markets and harms consumers and everyone in the food chain. Congress created the RFS, so it's up to Congress to repeal it.    Thoughtful lawmakers in both the House and Senate introduced legislation to repeal or significantly reform the RFS. H.R. 703 and 704 would repeal the entire RFS or repeal the worst part of it, the corn ethanol mandate. Both bills enjoy growing bipartisan support.    The RFS was a big mistake and it's broken beyond repair. We came here today to respectfully ask Congress to repeal it. Judy and I are here as small business owners, as employers, and as a family to bring attention to the real-life impact the RFS has had and to ask Congress to take action for all of us, because without your action, this situation will only get worse.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Anderson.    Dr. DeCicco, you are recognized for five minutes.</t>
   </si>
   <si>
+    <t>DeCicco</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. DeCicco. Thank you. And I wish to thank the Chairman----</t>
   </si>
   <si>
@@ -112,12 +142,21 @@
     <t>412644</t>
   </si>
   <si>
+    <t>Watson Coleman</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coleman. Thank you. Good morning, Chairman Bridenstine, Chairman Loudermilk, Ranking Members Bonamici and Beyer, and Members of the Subcommittee. My name is Brooke Coleman. I run something called the Advanced Biofuels Business Council.    The council represents worldwide leaders in the efforts to develop and commercialize next-generation advanced and cellulosic biofuels ranging from cellulosic ethanol made from switchgrass, which is an agricultural waste, to advanced biofuels made from sustainable energy crops, municipal solid waste, and algae. We are honored to be here today to help accurately assess the impacts of the federal Renewable Fuel Standard.    When I was thinking about my testimony today, it was quite clear that I would be giving a counter-perspective, and I want to give it. The RFS in my opinion is one of the most effective energy policies ever passed by Congress. Its notoriety stems not from its failures and unforeseen costs, as alleged, but instead its effectiveness in breaking the oil monopoly that leaves our economy and our environment at risk.    So if we're going to assess the RFS from a ten-year perspective, let's look a little bit back at what we--where we were ten years ago. We were in the middle of an MTBE crisis where the oil industry used a gasoline additive to avoid ethanol that polluted drinking water. The political deal in essence that happened on RFS1 was a way to facilitate getting MTBE out of gasoline and out of our families' drinking water, and it happened in less than a year because Congress sent a clear market signal that ethanol, a homegrown American renewable product, would replace MTBE in the marketplace.    A couple years later, Congress decided to pass a stronger RFS, and RFS2 passed in December 2007, built upon those successes and now supports more than 800,000 American jobs in 29 States, producing homegrown renewable fuels as an alternative to foreign oil.    This industry now displaces the foreign oil equivalent almost of Saudi Arabia and approximately Ecuador, and now we are innovating. I just returned from Nevada, Iowa, where DuPont just opened the largest cellulosic ethanol plant in the world. The plant will produce biofuel from corn silver, the unused part of the corn plant collected from local farms within 100 miles of the facility.    Quad County Syngenta was one of the first if not the first to produce commercial volumes of cellulosic biofuels. Their Cellerate technology produces cellulosic ethanol that is 129 percent better than gasoline on carbon emissions, reduces energy inputs, and increases the quality and quantity of production co-products like corn oil and cattle feed.    Abengoa and POET/DSM are deploying similar technologies using agricultural waste to make the lowest carbon, most innovative fuel in the world.    One more example, a member of mine, Fulcrum BioEnergy, just signed a $60 million deal with United Airlines to make intermediate biocrude and bioJet.    Unfortunately, the program's clear record of success is often lost in the cloud of misinformation kicked up by the oil industry and the so-called researchers, fellows, and experts funded by them. Just as the oil industry has been able to finance doubt about climate change, they are doing a heck of a job financing doubt about their primary competitor in biofuels.    I want to touch on a couple of these examples, and I hope that we can touch on some of the reports and positions that we have mentioned during Q&amp;A. The first is this notion that we are in a free market. It has been mentioned--it was mentioned by the Chairman; it was mentioned by multiple experts up here today. This is not a free market. The oil markets are controlled at the top by OPEC. They are controlled here in the United States by vertically integrated, highly consolidated oil companies.    We need the RFS because we can't get shelf space. We have to sell to our primary competitors who want to see us fail in order to gain market access. The problem is we are experiencing what it is like to be in a market-controlled environment as we speak. We don't have low gasoline prices because we have efficiency, we don't have low gasoline prices because suddenly our economy is doing something different. We have low gasoline prices because OPEC made a decision one year ago to drive down the price of fuel to put the U.S. oil boom on its heels and to kill oil rig counts in this country.    So OPEC is killing the very thing that the oil industry says we don't--is the reason we don't need the RFS anymore. In essence, the RFS is a hedge against this market power and allows our industry to grow and innovate over time with an expectation of market. If you give us a true free market, we will give you the RFS.    Finally, with my last 25 seconds, I'd like to say one of the most incredible arguments made against us is the food price argument. I have compassion, of course, for franchise owners, but the problem is that corn prices today are lower than they were when President Bush signed this law in 2007. It is hard for me to believe that the RFS is increasing food costs when the primary reason that the restaurants claim while they pull in record profits over the last ten years, this year, is that corn prices are increasing when they're actually decreasing.    So one of the things I would like to do and have the opportunity to do as we move forward in Q&amp;A is discuss some of these issues, and I look forward to that very much. But I'm confident that the facts will prevail on the RFS discussion, and I appreciate the opportunity to speak today.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Bridenstine. Thank you, Mr. Coleman.    Mr. Drevna, you're recognized for five minutes.</t>
   </si>
   <si>
+    <t>Drevna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Drevna. Chairmen Bridenstine and Loudermilk, Ranking Members Bonamici and Beyer, I am Charlie Drevna, Senior Fellow at the Institute for Energy Research.    You know, once Milton Friedman famously posited that one of the great mistakes is to judge policies and programs by their intentions rather than their results. If he were alive today, Friedman would point to the RFS as a prime example of his belief.    In the mid-2000s and even before, so-called industry analysts and renowned economists predicted ever-increasing gasoline demand as they simultaneously declared the United States to be energy-scarce. The Nation was on a path according to the self-anointed experts to reliance on ever-increasing foreign sources of energy, much of which came from potentially unstable regions of the world.    Congress and the Administration accepted the reviews, and in 2005 adopted the Energy Policy Act, which required refiners to blend 7.5 billion gallons of ethanol into the gasoline pool by 2012. In less than two years, this nuisance of free market interference became a full-blown anti-consumer, anti-free market debacle as EISA '07 mandated 36 billion gallons of renewable fuels, some of which actually existed, be blended into domestic transportation fuels by 2022.    In essence, the predictions of 2007 and earlier are the polar opposite of the realities of 2015. Confounding the problem is the undeniable fact that advanced biofuels production, the anticipated linchpin of the RFS, has fallen woefully short of the numerous promises made since 2007.    I'm sure the Committee is familiar with such names as Range Fuels, KiOR, Blue Sugars, Absolute Fuels, New Energy Fuels, Green Diesel, and a host of others, most of whom have squandered taxpayer dollars or committed fraud, or both, and yet today we continue to hear that the economic production of cellulosic fuels is ``right around the corner.'' It's a big corner.    What's clear is that neither Congress nor EPA can mandate innovation or favorable economics, try as they may. The hard sciences of chemistry and physics remain immune to political science, and they remain formidable obstacles to economic production of commercial-scale cellulosic fuels. However, one should not discount the innovation provided by EPA to assist in this effort. EPA stipulates that ethanol produced from sugarcane qualifies in advanced biofuel. That's helping to meet the statutory volume requirements. What's ironic about this news is that ethanol produced from sugarcane is imported mostly from Brazil. So much for that homegrown stuff. And the intent--and what was the intent of the RFS to limit imported fuels? Okay.    So what State virtually imports all of this biofuel? Well, that would be California. And why California? The State's low carbon fuel standard requires refiners to use millions of gallons of advanced biofuel, and imported sugarcane is the only available product that fits that definition, as unscientific as that definition is. Yes, that's correct. California prohibits ethanol from U.S. producers and imports it from Brazil. This allows California legislators and regulators to promote themselves as pioneers in the green movement.    So what happens to the ethanol from the U.S. producers that would've otherwise gone and been delivered to California? The Brazilians don't care if their ethanol comes from sugar or corn, so California and Brazil swap their ethanol, literally two ships passing in the night. The net outcome, higher shipping costs, and ironically, increases in GHG emissions.    Not satisfied with the overall results, EPA then decided to enhance the total production of cellulosic fuels not via scientific breakthrough. Rather, it would be much simpler to change the definition of cellulosic fuels to include a portion of biogas produced from landfills. If you look at the volume increases in cellulosic production 2014 through '15, it's nearly all attributable to EPA semantics. Why let pesky little details such as chemical structure and definition get in the way of a predetermined outcome?    If one were to be intellectually honest, the RFS was never about energy security, the environment, or national security. It's been accurately described as crony capitalism, although the use of the term capitalism in reference to the RFS is a basic non sequitur. It may be much more accurate to label the RFS and other anti-free market mandates, subsidies, and giveaways for what they really are: government attempting to pick the winners and losers in the marketplace. And the government's track record is most illustrative as its penchant for picking losers is quite outstanding.    Even if the intentions of the RFS were noble, the program must be judged on its results. It's past time for Congress to admit that the RFS has not delivered and will not deliver anticipated results. The law should be repealed and allow for American ingenuity, entrepreneurship, and free-market enterprise to do what it does best. They haven't failed the nation yet.    Thank you very much.                  </t>
   </si>
   <si>
@@ -304,6 +343,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. I'd like to thank the Ranking Member.    I recognize Mr. Weber from Texas for five minutes.</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you, Mr. Chairman.    And Dr.--is it Dinan?</t>
   </si>
   <si>
@@ -454,6 +496,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. Thank you. I guess we are out of witnesses on that end, so we'll go with Mr. Babin also from Texas.</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you, Mr. Chairman, and thank you, witnesses, for being here.    I--maybe I missed this a while ago but, Dr. DeCicco, can you tell me a little more about why corn ethanol is worse for air quality the gasoline? That may have already been asked and hashed but----</t>
   </si>
   <si>
@@ -508,6 +553,9 @@
     <t xml:space="preserve">    Chairman Bridenstine. Okay. The gentleman, Mr. Abraham, is recognized from Louisiana.</t>
   </si>
   <si>
+    <t>Abraham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Abraham. Mr. Coleman, I see you on the button. Give me your opinion if we repealed the RFS. What would that do to general farm prices right now? They're low already, the commodity prices. What would the total repeal of the RFS do to the----</t>
   </si>
   <si>
@@ -547,6 +595,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank the witnesses for being here today. These are some fascinating subjects, and I'm struggling a little bit on which one to address here. We've got land use and a clean environment. With got the law of conservation of mass and energy and energy conservation or net energy gain or the carbon cycle and economics versus of real versus inflationary food costs. These are all things that I like to talk about.    But let's start off with the carbon cycle and land use. And, Dr. DeCicco, if I understand your argument that there's--and getting back to the law of conservation of mass and energy, there's only so much carbon in the world, and the question is where's that carbon going to be located? It's either going to be in the atmosphere or is going to be sequestered somewhere under the ground or in biomass here on the earth. And if we create a new crop source to make ethanol or corn, then you're going to be clearing more land to produce this corn. So you're changing land-use and putting a crop there that's going to be planted and harvested every year.    I remember being at a conference on renewable energy where they were showing in South America where they had cleared this highly productive land to grow--I don't remember if it was sugar beets or corn, but in the photo there was timber from a rainforest stacked up in a perimeter around the land. It was used to keep animals out of the crop.    But as we look at that, something we haven't talked about is the energy gained from corn ethanol. And the research that I've looked at show that somewhere between 1 to 1.3, maybe even as high as 1.6 on the energy put into producing corn ethanol versus the energy that you get out. We've been talking more about the carbon balance on it. But if we look at other forms of cellulosic ethanol or biomass, even though the processes haven't been refined, the numbers on the net energy gain are much higher than what we see on corn ethanol.    So are you saying we should totally abandon all renewable fuels, or is there room for more research to develop some of these cellulosic ethanol technologies maybe from woody biomass that do have even a bigger carbon cycle effect?</t>
   </si>
   <si>
@@ -599,6 +653,12 @@
   </si>
   <si>
     <t>412674</t>
+  </si>
+  <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Mr. Chairman. And, Mr. Chairman and Chairman Loudermilk, I look forward to working with you on this issue, and appreciate the testimony of the witnesses here today.    I'm brand new, come from Illinois, Ag is the number one industry in our state. And in hearing the testimony particularly from Dr. DeCicco and Mr. Drevna, I mean, it really seems incongruent when you look at the genesis of the law and going back and looking at the Energy Policy Act of 2005 and the EISA law of 2007. And at the signing ceremony there, the emphasis on why that was put in place, the RFS, you know, President Bush talked about protecting the environment, strengthening our energy security, supporting American farmers.    And you listen to that and also the Secretary of Energy at the time Samuel Bodman and Secretary Johanns, who's now a U.S. Senator, and you listen to what they said then and how that's played out and then you hear the testimony here today, they're in conflict. And I'm trying to rationalize that and figure out where the truth lies.    And I guess in looking at my own district, I have a very rural district in central and west central Illinois. And I think in my district--ag is the number one industry in the State of Illinois. We have--you know, we have some of the most fertile farmland in the entire world. And I look at what it does in Illinois in terms of what it's done for our consumers.    I don't--to be honest with you, Mr. Anderson, I don't hear much complaints about food prices going up in my district. We have some big livestock operations there, you know, we have some of the highest yields we've had, energy prices and gasoline prices have been low in Illinois, and then you--our air pollution has gone down almost every year in Illinois.    So I look at those tangible benefits and I also look at the jobs that are created in Illinois through agriculture, whether that's John Deere or ADM or Caterpillar. There are lots of small and medium-sized businesses that have benefited from this law.    And I guess in looking at, Dr. DeCicco, the flaws that you laid out--and I have to admit I don't know much about carbon neutrality or violation of carbon mass--some of these flaws, but I guess in looking at the genesis of this bill and what was put forward and the rationale and how that's playing out, I guess I have not heard from--whether that's Secretary Bodman or Secretary Johanns--on acknowledging these flaws or making statements that the law somehow was incorrect and we need to amend that or revise that. Can you comment on that?</t>
@@ -986,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1054,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4781 +1076,5509 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>20</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>20</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
       <c r="H48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>20</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
       <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
       <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
       <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
       <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
       <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
       <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>109</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>109</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>37</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>109</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G96" t="s">
+        <v>42</v>
+      </c>
       <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I96" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>109</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>109</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>109</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>109</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
       <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>109</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>109</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>109</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>109</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>109</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>109</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>109</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>109</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G122" t="s">
+        <v>42</v>
+      </c>
       <c r="H122" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I122" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>109</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G124" t="s">
+        <v>42</v>
+      </c>
       <c r="H124" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>109</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G126" t="s">
+        <v>42</v>
+      </c>
       <c r="H126" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I126" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>109</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>109</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G130" t="s">
+        <v>42</v>
+      </c>
       <c r="H130" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>109</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G132" t="s">
+        <v>42</v>
+      </c>
       <c r="H132" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I132" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G134" t="s">
+        <v>42</v>
+      </c>
       <c r="H134" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I134" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>109</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G136" t="s">
+        <v>42</v>
+      </c>
       <c r="H136" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>109</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G138" t="s">
+        <v>42</v>
+      </c>
       <c r="H138" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I138" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>109</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>160</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>160</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>160</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>160</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>37</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>160</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G150" t="s">
+        <v>37</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>160</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>160</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>179</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G160" t="s">
+        <v>42</v>
+      </c>
       <c r="H160" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>179</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G162" t="s">
+        <v>42</v>
+      </c>
       <c r="H162" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>179</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G164" t="s">
+        <v>42</v>
+      </c>
       <c r="H164" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>179</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G166" t="s">
+        <v>42</v>
+      </c>
       <c r="H166" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>179</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G168" t="s">
+        <v>42</v>
+      </c>
       <c r="H168" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>179</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>176</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G171" t="s">
+        <v>193</v>
+      </c>
       <c r="H171" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I171" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G172" t="s">
+        <v>37</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>176</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G173" t="s">
+        <v>193</v>
+      </c>
       <c r="H173" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I173" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>37</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>176</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G175" t="s">
+        <v>193</v>
+      </c>
       <c r="H175" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I175" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>37</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>176</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G177" t="s">
+        <v>193</v>
+      </c>
       <c r="H177" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I177" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>176</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G179" t="s">
+        <v>193</v>
+      </c>
       <c r="H179" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I179" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G180" t="s">
+        <v>42</v>
+      </c>
       <c r="H180" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I180" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>176</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G181" t="s">
+        <v>193</v>
+      </c>
       <c r="H181" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I181" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>46</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G184" t="s">
+        <v>46</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>176</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G186" t="s">
+        <v>193</v>
+      </c>
       <c r="H186" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I186" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>194</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G188" t="s">
+        <v>213</v>
+      </c>
       <c r="H188" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I188" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>37</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>194</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G190" t="s">
+        <v>213</v>
+      </c>
       <c r="H190" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I190" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
+        <v>37</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>194</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>212</v>
+      </c>
+      <c r="G192" t="s">
+        <v>213</v>
+      </c>
       <c r="H192" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I192" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>21</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G194" t="s">
+        <v>27</v>
+      </c>
       <c r="H194" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I194" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G195" t="s">
+        <v>42</v>
+      </c>
       <c r="H195" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I195" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>21</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G196" t="s">
+        <v>27</v>
+      </c>
       <c r="H196" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I196" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G197" t="s">
+        <v>42</v>
+      </c>
       <c r="H197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I197" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>21</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>26</v>
+      </c>
+      <c r="G198" t="s">
+        <v>27</v>
+      </c>
       <c r="H198" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I198" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>207</v>
+        <v>12</v>
+      </c>
+      <c r="G200" t="s">
+        <v>46</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97766.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97766.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Loudermilk</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
   </si>
   <si>
     <t>412657</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Beyer</t>
@@ -1046,7 +1055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,7 +1063,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,5506 +1088,5836 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G79" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>112</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>109</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>112</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>37</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>112</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" t="s">
-        <v>109</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>112</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>46</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" t="s">
-        <v>109</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>112</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>46</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>112</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>46</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>49</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>109</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>112</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>109</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>112</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>46</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>49</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>109</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>112</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" t="s">
-        <v>46</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>49</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>109</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>112</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>46</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>49</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>109</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>112</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" t="s">
-        <v>46</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>49</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>109</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>112</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>46</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>49</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>109</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>112</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>46</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>49</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>109</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>112</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>46</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>49</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>109</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>112</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>46</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>109</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>112</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I122" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>109</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>112</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>109</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>112</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>109</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>112</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>46</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>49</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>109</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>112</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>109</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>112</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>109</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>112</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" t="s">
-        <v>109</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>112</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" t="s">
-        <v>109</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>112</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>109</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>112</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" t="s">
-        <v>160</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>163</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>37</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>40</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" t="s">
-        <v>160</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" t="s">
-        <v>37</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>40</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" t="s">
-        <v>160</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>163</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" t="s">
-        <v>37</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>40</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" t="s">
-        <v>160</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>163</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>37</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>40</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
-      </c>
-      <c r="G149" t="s">
-        <v>160</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>163</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G150" t="s">
-        <v>37</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>40</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" t="s">
-        <v>160</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>163</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" t="s">
-        <v>31</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>34</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
-      </c>
-      <c r="G153" t="s">
-        <v>160</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>163</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
-      </c>
-      <c r="G154" t="s">
-        <v>13</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" t="s">
-        <v>31</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>34</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
-      </c>
-      <c r="G156" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
-      </c>
-      <c r="G157" t="s">
-        <v>31</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>34</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" t="s">
-        <v>179</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>182</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G160" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
-      </c>
-      <c r="G161" t="s">
-        <v>179</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="162" spans="1:9">
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" t="s">
-        <v>179</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>182</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
-      </c>
-      <c r="G165" t="s">
-        <v>179</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>182</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J166" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" t="s">
-        <v>179</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>182</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J168" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>179</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>182</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G171" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I171" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J171" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" t="s">
-        <v>37</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>40</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G173" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I173" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="174" spans="1:9">
+      <c r="J173" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" t="s">
-        <v>37</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>40</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G175" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H175" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I175" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J175" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" t="s">
-        <v>37</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>40</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G177" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I177" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J177" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G179" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H179" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I179" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I180" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J180" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G181" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H181" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I181" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J181" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182" t="s">
-        <v>46</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>49</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
-      </c>
-      <c r="G183" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" t="s">
-        <v>46</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G186" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="H186" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I186" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J186" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" t="s">
-        <v>13</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G188" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="H188" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I188" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J188" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" t="s">
-        <v>37</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>40</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G190" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="H190" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I190" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" t="s">
-        <v>37</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>40</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G192" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="H192" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I192" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>217</v>
+      </c>
+      <c r="J192" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G194" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H194" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I194" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J194" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I195" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J195" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G196" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H196" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I196" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I197" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G198" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H198" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I198" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J198" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s"/>
-      <c r="I199" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s"/>
+      <c r="J199" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" t="s">
-        <v>46</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>227</v>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>49</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
